--- a/영화DB/MOVIE_DATA_TABLE.xlsx
+++ b/영화DB/MOVIE_DATA_TABLE.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Joo\jsp\movie\영화DB\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="177">
   <si>
     <t>MOV_TITLE</t>
   </si>
@@ -424,10 +429,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2001-00-00</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>전체관람가</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -448,10 +449,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2018.01.11</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>전체관람가</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -549,9 +546,6 @@
   </si>
   <si>
     <t>수상한 그녀</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2014-01-22</t>
   </si>
   <si>
     <t>15세</t>
@@ -565,9 +559,6 @@
   </si>
   <si>
     <t>아이 캔 스피크</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2017-09-21</t>
   </si>
   <si>
     <t>12세</t>
@@ -654,7 +645,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -795,7 +786,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -830,7 +821,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1045,8 +1036,8 @@
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D58" sqref="D58"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1107,7 +1098,7 @@
         <v>42788</v>
       </c>
       <c r="C3">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -1127,7 +1118,7 @@
         <v>42872</v>
       </c>
       <c r="C4">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -1147,7 +1138,7 @@
         <v>40402</v>
       </c>
       <c r="C5">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -1167,7 +1158,7 @@
         <v>41500</v>
       </c>
       <c r="C6">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
@@ -1187,7 +1178,7 @@
         <v>41486</v>
       </c>
       <c r="C7">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -1196,7 +1187,7 @@
         <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -1207,7 +1198,7 @@
         <v>43068</v>
       </c>
       <c r="C8">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
@@ -1247,7 +1238,7 @@
         <v>38562</v>
       </c>
       <c r="C10">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1267,7 +1258,7 @@
         <v>41940</v>
       </c>
       <c r="C11">
-        <v>144</v>
+        <v>101</v>
       </c>
       <c r="D11" t="s">
         <v>20</v>
@@ -1693,7 +1684,7 @@
         <v>108</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F32" t="s">
         <v>109</v>
@@ -1713,7 +1704,7 @@
         <v>108</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F33" t="s">
         <v>111</v>
@@ -1733,7 +1724,7 @@
         <v>113</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F34" t="s">
         <v>114</v>
@@ -1743,25 +1734,25 @@
       <c r="A35" t="s">
         <v>115</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>116</v>
+      <c r="B35" s="1">
+        <v>37235</v>
       </c>
       <c r="C35">
         <v>123</v>
       </c>
       <c r="D35" t="s">
+        <v>116</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="F35" t="s">
         <v>117</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="F35" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B36" s="1">
         <v>35063</v>
@@ -1770,38 +1761,38 @@
         <v>77</v>
       </c>
       <c r="D36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F36" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>121</v>
-      </c>
-      <c r="B37" t="s">
-        <v>122</v>
+        <v>120</v>
+      </c>
+      <c r="B37" s="1">
+        <v>43111</v>
       </c>
       <c r="C37">
         <v>127</v>
       </c>
       <c r="D37" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F37" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B38" s="1">
         <v>38336</v>
@@ -1810,18 +1801,18 @@
         <v>121</v>
       </c>
       <c r="D38" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F38" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B39" s="1">
         <v>43103</v>
@@ -1830,18 +1821,18 @@
         <v>108</v>
       </c>
       <c r="D39" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F39" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B40" s="1">
         <v>37100</v>
@@ -1850,18 +1841,18 @@
         <v>87</v>
       </c>
       <c r="D40" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F40" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B41" s="1">
         <v>38344</v>
@@ -1870,58 +1861,58 @@
         <v>119</v>
       </c>
       <c r="D41" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E41" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="F41" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>145</v>
       </c>
-      <c r="F41" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>147</v>
-      </c>
-      <c r="B42" t="s">
-        <v>148</v>
+      <c r="B42" s="1">
+        <v>41661</v>
       </c>
       <c r="C42">
         <v>124</v>
       </c>
       <c r="D42" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F42" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>152</v>
-      </c>
-      <c r="B43" t="s">
-        <v>153</v>
+        <v>149</v>
+      </c>
+      <c r="B43" s="1">
+        <v>42999</v>
       </c>
       <c r="C43">
         <v>119</v>
       </c>
       <c r="D43" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E43" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F43" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B44" s="1">
         <v>42663</v>
@@ -1930,18 +1921,18 @@
         <v>93</v>
       </c>
       <c r="D44" t="s">
+        <v>150</v>
+      </c>
+      <c r="E44" t="s">
         <v>154</v>
       </c>
-      <c r="E44" t="s">
-        <v>158</v>
-      </c>
       <c r="F44" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B45" s="1">
         <v>41661</v>
@@ -1950,18 +1941,18 @@
         <v>121</v>
       </c>
       <c r="D45" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E45" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F45" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B46" s="1">
         <v>42333</v>
@@ -1970,18 +1961,18 @@
         <v>106</v>
       </c>
       <c r="D46" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E46" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F46" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B47" s="1">
         <v>42894</v>
@@ -1990,18 +1981,18 @@
         <v>120</v>
       </c>
       <c r="D47" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E47" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F47" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B48" s="1">
         <v>43272</v>
@@ -2010,18 +2001,18 @@
         <v>106</v>
       </c>
       <c r="D48" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E48" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F48" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B49" s="1">
         <v>41872</v>
@@ -2030,18 +2021,18 @@
         <v>104</v>
       </c>
       <c r="D49" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E49" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F49" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B50" s="1">
         <v>43488</v>
@@ -2050,18 +2041,18 @@
         <v>111</v>
       </c>
       <c r="D50" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E50" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F50" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B51" s="1">
         <v>43404</v>
@@ -2070,13 +2061,13 @@
         <v>115</v>
       </c>
       <c r="D51" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E51" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F51" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
